--- a/data/trans_camb/P1427-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1427-Habitat-trans_camb.xlsx
@@ -618,13 +618,13 @@
         <v>-0.5817259400283596</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.279401139372176</v>
+        <v>3.279401139372175</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>-0.7128046532169294</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>2.693871645619644</v>
+        <v>2.693871645619645</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.221077457352828</v>
+        <v>-2.166247426625446</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4955526474498029</v>
+        <v>0.4486230044745843</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.380364642739112</v>
+        <v>-2.479944980036911</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.421565866095657</v>
+        <v>1.293781785065933</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.85787478100738</v>
+        <v>-1.870620406207667</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.427934939274319</v>
+        <v>1.365247974289954</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5973853769462109</v>
+        <v>0.4109508785209103</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.661156498828548</v>
+        <v>3.663462274329215</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.383225819354829</v>
+        <v>1.32993884720696</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.050309924309501</v>
+        <v>4.944783138721356</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4837492348003565</v>
+        <v>0.4427021558686785</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.887186543717987</v>
+        <v>3.871252496909451</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7275656210095622</v>
+        <v>-0.7524884065446095</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1293870002303218</v>
+        <v>0.1284520147784295</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6180212328710851</v>
+        <v>-0.6298668810248569</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.2576896208111562</v>
+        <v>0.2901755364224083</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5895499651348933</v>
+        <v>-0.5709271080342044</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4373252502657512</v>
+        <v>0.3921799286539887</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5931687691220973</v>
+        <v>0.3868951781534533</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.742153737041566</v>
+        <v>2.500902996546529</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.7384236623358182</v>
+        <v>0.679597390187521</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.679949036596747</v>
+        <v>2.46109662728748</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2478731889180572</v>
+        <v>0.2442123679183346</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.052603246335604</v>
+        <v>2.009290245721949</v>
       </c>
     </row>
     <row r="10">
@@ -778,13 +778,13 @@
         <v>-1.044905001101017</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.4408837877437517</v>
+        <v>0.4408837877437524</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>-1.152335141008276</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.7195206365384877</v>
+        <v>0.7195206365384871</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.54305280439676</v>
+        <v>-2.45696043407224</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.5655298233009173</v>
+        <v>-0.3393561319077255</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.475862329491118</v>
+        <v>-2.450166654838109</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.0305371719663</v>
+        <v>-0.9629010760838235</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.157602961471746</v>
+        <v>-2.041726178874474</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.3354334588322095</v>
+        <v>-0.2771715774854812</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.2608064656167041</v>
+        <v>-0.2165290132413993</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.188127324689947</v>
+        <v>2.467409245140043</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2455713286921463</v>
+        <v>0.2658815059324351</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.71513528530256</v>
+        <v>1.752319105747598</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.3130474538592951</v>
+        <v>-0.3277273721590086</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.623531509534113</v>
+        <v>1.623799538971225</v>
       </c>
     </row>
     <row r="13">
@@ -856,13 +856,13 @@
         <v>-0.3879698982383349</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.1636987459009575</v>
+        <v>0.1636987459009577</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.484609197872615</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3025910658427155</v>
+        <v>0.3025910658427152</v>
       </c>
     </row>
     <row r="14">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.8599209278533544</v>
+        <v>-0.8405219935577576</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2203302897256168</v>
+        <v>-0.1368138267173963</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6980491542341768</v>
+        <v>-0.7026467141841756</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2900787923059422</v>
+        <v>-0.2652849316339834</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7127980991610324</v>
+        <v>-0.6887924285000143</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1223750055751358</v>
+        <v>-0.0934434984847851</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.1356471204029103</v>
+        <v>-0.07378318161037659</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.548261453066737</v>
+        <v>1.920627023170218</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1988960251208714</v>
+        <v>0.2393433934418763</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.9270418980138923</v>
+        <v>0.9789040757458507</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1543392843442617</v>
+        <v>-0.1703946014598194</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8655819684599128</v>
+        <v>0.9144218920737047</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.556965828160359</v>
+        <v>-1.6049730987982</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.3518281655049791</v>
+        <v>-0.4246539555691909</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.608013361041181</v>
+        <v>-1.68253132551672</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8713074095647206</v>
+        <v>0.8631057026435676</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.229136988542545</v>
+        <v>-1.234677444804191</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6734886553261606</v>
+        <v>0.6142595650940363</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.707672299218269</v>
+        <v>0.6545159566678727</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.13021674812804</v>
+        <v>2.189430420499466</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.368710549975785</v>
+        <v>1.37278646026038</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.259153425067604</v>
+        <v>4.032684759628217</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6876379854114718</v>
+        <v>0.65666860323339</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.732184423475689</v>
+        <v>2.685867129482999</v>
       </c>
     </row>
     <row r="19">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7705162207674179</v>
+        <v>-0.7995294689859788</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2534092075736242</v>
+        <v>-0.2895387322506444</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5896466798744935</v>
+        <v>-0.5663891466239007</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.2200153740610115</v>
+        <v>0.241947342600738</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5621228335047497</v>
+        <v>-0.5397826531280111</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2624100746999943</v>
+        <v>0.2104690833038126</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.983985345960667</v>
+        <v>0.9700113195128679</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.878146260458973</v>
+        <v>2.818741720807246</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.005588465586094</v>
+        <v>0.9645375211769431</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>3.015991792686423</v>
+        <v>2.899588307589987</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5452562276383313</v>
+        <v>0.4842017542761816</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.20988946367704</v>
+        <v>2.057934437662388</v>
       </c>
     </row>
     <row r="22">
@@ -1092,7 +1092,7 @@
         <v>-1.080097185997214</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.8171702099480964</v>
+        <v>0.8171702099480969</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.2497771913184448</v>
@@ -1104,7 +1104,7 @@
         <v>-0.3791805038848763</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1.211825918871879</v>
+        <v>1.21182591887188</v>
       </c>
     </row>
     <row r="23">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.402042340987273</v>
+        <v>-2.459328186420288</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.5254391778843827</v>
+        <v>-0.6323342960962418</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.409551575117189</v>
+        <v>-1.338647512778255</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1863355867014951</v>
+        <v>0.1918752424511994</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.489352014361329</v>
+        <v>-1.484206452513609</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2185109369412833</v>
+        <v>0.1893323221029445</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04966059621774607</v>
+        <v>0.1258749421853247</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.213228104736586</v>
+        <v>2.209857402694966</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.637196369812445</v>
+        <v>1.823007859414704</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.904321421401204</v>
+        <v>2.954313990337123</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5704558109584638</v>
+        <v>0.4699956522918741</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.207044523439284</v>
+        <v>2.174496195800713</v>
       </c>
     </row>
     <row r="25">
@@ -1170,7 +1170,7 @@
         <v>-0.4786016502459469</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.3620961299439906</v>
+        <v>0.3620961299439908</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>0.09255721737478462</v>
@@ -1182,7 +1182,7 @@
         <v>-0.1523297301302726</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4868317682352909</v>
+        <v>0.4868317682352915</v>
       </c>
     </row>
     <row r="26">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.7736444239123541</v>
+        <v>-0.763914687234183</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1942196130958927</v>
+        <v>-0.2327282034612868</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4210277142509578</v>
+        <v>-0.3972595492734081</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.03659338629251058</v>
+        <v>0.02549461081762031</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4563121186439314</v>
+        <v>-0.4763768635659525</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07047660506247876</v>
+        <v>0.05027115730125905</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.05245449005296568</v>
+        <v>0.1367555951203394</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.468383744586298</v>
+        <v>1.463499870827189</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.8635187089447228</v>
+        <v>0.872281563950361</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.492352626699535</v>
+        <v>1.418803884759087</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.289764533357438</v>
+        <v>0.2402205467037344</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.12566180862697</v>
+        <v>1.13896063630683</v>
       </c>
     </row>
     <row r="28">
@@ -1258,13 +1258,13 @@
         <v>-0.3754346495776495</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1.788391147452678</v>
+        <v>1.788391147452677</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>-0.6511508316614512</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>1.468434234364428</v>
+        <v>1.468434234364427</v>
       </c>
     </row>
     <row r="29">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.589657069304178</v>
+        <v>-1.525070321651815</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.4829766275461324</v>
+        <v>0.4165052673493422</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.18780880308061</v>
+        <v>-1.15201742678616</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.12385032981894</v>
+        <v>1.047478533007953</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.158650945529063</v>
+        <v>-1.126605595791209</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.942426598964258</v>
+        <v>0.9408748237752679</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.3749373633060804</v>
+        <v>-0.3615368182358573</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.947192720116802</v>
+        <v>1.816781069474942</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3942769297576832</v>
+        <v>0.4361638194002309</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.639419164308622</v>
+        <v>2.65377697834703</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.1769986800599193</v>
+        <v>-0.1640260184175673</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.989284282758055</v>
+        <v>1.971523277977872</v>
       </c>
     </row>
     <row r="31">
@@ -1336,13 +1336,13 @@
         <v>-0.1419117369035789</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>0.6759996560879582</v>
+        <v>0.6759996560879579</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>-0.2805748045793905</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.632734580547534</v>
+        <v>0.6327345805475337</v>
       </c>
     </row>
     <row r="32">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6615537643130481</v>
+        <v>-0.6434748135165386</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1861884675751053</v>
+        <v>0.1719501090901592</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3806934045076823</v>
+        <v>-0.3818470195618709</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.3492982604858635</v>
+        <v>0.3279542551940676</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4519261547471995</v>
+        <v>-0.434485328580804</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3481157395535848</v>
+        <v>0.3547977841633347</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.2267425501092226</v>
+        <v>-0.1842289313304937</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.166964993250593</v>
+        <v>1.129544159769466</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1753576396747634</v>
+        <v>0.1963420897481645</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.213872691054668</v>
+        <v>1.205513985202178</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.09155191511889457</v>
+        <v>-0.08320815670480111</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.9539570003553994</v>
+        <v>0.9506387202862332</v>
       </c>
     </row>
     <row r="34">
